--- a/registered_courses.xlsx
+++ b/registered_courses.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,26 +436,66 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>نام دوره</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>نام</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>نام خانوادگی</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>نام دوره</t>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>کدملی</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>حسابداری</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>tina</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>خیاطی</t>
+          <t>amini</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>مراقبت زیبایی</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>tina</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>amini</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>

--- a/registered_courses.xlsx
+++ b/registered_courses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,43 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ردیف</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>نام</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>نام خانوادگی</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>کدملی</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>شماره تماس</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>نام دوره</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>نام</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>نام خانوادگی</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>کدملی</t>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>زمان انتخاب</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>حسابداری</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -474,14 +487,27 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>None</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09916450191</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>مراقبت زیبایی</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1402/11/23</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>مراقبت زیبایی</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -496,6 +522,56 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>None</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09916450191</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>حسابداری</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1402/11/23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>tina</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>amini</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>09916450191</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>خیاطی</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1402/11/23</t>
         </is>
       </c>
     </row>

--- a/registered_courses.xlsx
+++ b/registered_courses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>0924295880</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,82 +496,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>مراقبت زیبایی</t>
+          <t>خیاطی</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1402/11/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>tina</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>amini</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>09916450191</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>حسابداری</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1402/11/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>tina</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>amini</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>09916450191</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>خیاطی</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1402/11/23</t>
+          <t>1402/11/25</t>
         </is>
       </c>
     </row>

--- a/registered_courses.xlsx
+++ b/registered_courses.xlsx
@@ -55,10 +55,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +430,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -471,37 +474,37 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>tina</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>amini</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>0924295880</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>09916450191</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>خیاطی</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1402/11/25</t>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>1402/11/28</t>
         </is>
       </c>
     </row>

--- a/registered_courses.xlsx
+++ b/registered_courses.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>09916450191</t>
+          <t>09154417796</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>1402/11/28</t>
+          <t>1402/11/30</t>
         </is>
       </c>
     </row>
